--- a/trainings and results/rez AI/AIMoldelsResults.xlsx
+++ b/trainings and results/rez AI/AIMoldelsResults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
   <si>
     <t>Pathology</t>
   </si>
@@ -289,6 +289,159 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.747 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.783 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886 </t>
+  </si>
+  <si>
+    <t>SgdCustomLossEp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.643 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.762 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895 </t>
+  </si>
+  <si>
+    <t>SgdfocalLossA75Epc4</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.785 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.729 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887 </t>
+  </si>
+  <si>
+    <t>SgdfocalLossA75Epc5</t>
+  </si>
+  <si>
+    <t>SgdfocalLossA75Epc10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.736 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861 </t>
   </si>
 </sst>
 </file>
@@ -643,24 +796,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+      <selection activeCell="J5" sqref="I5:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="28.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +835,20 @@
       <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,8 +867,20 @@
       <c r="F2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,8 +899,20 @@
       <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -739,8 +931,20 @@
       <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,8 +963,20 @@
       <c r="F5" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -779,8 +995,20 @@
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,8 +1027,20 @@
       <c r="F7" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -819,8 +1059,20 @@
       <c r="F8" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -839,8 +1091,20 @@
       <c r="F9" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -859,8 +1123,20 @@
       <c r="F10" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -879,8 +1155,20 @@
       <c r="F11" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -899,8 +1187,20 @@
       <c r="F12" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -919,8 +1219,20 @@
       <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -939,8 +1251,20 @@
       <c r="F14" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -959,8 +1283,20 @@
       <c r="F15" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>90</v>
       </c>
